--- a/natmiOut/OldD0/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.55292663424267</v>
+        <v>4.097357333333333</v>
       </c>
       <c r="H2">
-        <v>3.55292663424267</v>
+        <v>12.292072</v>
       </c>
       <c r="I2">
-        <v>0.02996715488369971</v>
+        <v>0.03407839216891784</v>
       </c>
       <c r="J2">
-        <v>0.02996715488369971</v>
+        <v>0.03407839216891784</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9001982449359</v>
+        <v>24.519512</v>
       </c>
       <c r="N2">
-        <v>16.9001982449359</v>
+        <v>73.558536</v>
       </c>
       <c r="O2">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="P2">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="Q2">
-        <v>60.04516446841399</v>
+        <v>100.4652023029547</v>
       </c>
       <c r="R2">
-        <v>60.04516446841399</v>
+        <v>904.186820726592</v>
       </c>
       <c r="S2">
-        <v>0.01149489054890755</v>
+        <v>0.01614135755195801</v>
       </c>
       <c r="T2">
-        <v>0.01149489054890755</v>
+        <v>0.01614135755195801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.55292663424267</v>
+        <v>4.097357333333333</v>
       </c>
       <c r="H3">
-        <v>3.55292663424267</v>
+        <v>12.292072</v>
       </c>
       <c r="I3">
-        <v>0.02996715488369971</v>
+        <v>0.03407839216891784</v>
       </c>
       <c r="J3">
-        <v>0.02996715488369971</v>
+        <v>0.03407839216891784</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.6403963973478</v>
+        <v>14.70328633333333</v>
       </c>
       <c r="N3">
-        <v>14.6403963973478</v>
+        <v>44.109859</v>
       </c>
       <c r="O3">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="P3">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="Q3">
-        <v>52.01625429600743</v>
+        <v>60.24461808198311</v>
       </c>
       <c r="R3">
-        <v>52.01625429600743</v>
+        <v>542.201562737848</v>
       </c>
       <c r="S3">
-        <v>0.009957856809789844</v>
+        <v>0.009679271018736058</v>
       </c>
       <c r="T3">
-        <v>0.009957856809789844</v>
+        <v>0.009679271018736058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.55292663424267</v>
+        <v>4.097357333333333</v>
       </c>
       <c r="H4">
-        <v>3.55292663424267</v>
+        <v>12.292072</v>
       </c>
       <c r="I4">
-        <v>0.02996715488369971</v>
+        <v>0.03407839216891784</v>
       </c>
       <c r="J4">
-        <v>0.02996715488369971</v>
+        <v>0.03407839216891784</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.5181857537903</v>
+        <v>12.543947</v>
       </c>
       <c r="N4">
-        <v>12.5181857537903</v>
+        <v>37.631841</v>
       </c>
       <c r="O4">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="P4">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="Q4">
-        <v>44.47619557703872</v>
+        <v>51.39703322939467</v>
       </c>
       <c r="R4">
-        <v>44.47619557703872</v>
+        <v>462.573299064552</v>
       </c>
       <c r="S4">
-        <v>0.008514407525002318</v>
+        <v>0.008257763598223774</v>
       </c>
       <c r="T4">
-        <v>0.008514407525002318</v>
+        <v>0.008257763598223774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>113.291463649125</v>
+        <v>114.2138366666667</v>
       </c>
       <c r="H5">
-        <v>113.291463649125</v>
+        <v>342.64151</v>
       </c>
       <c r="I5">
-        <v>0.9555566966831095</v>
+        <v>0.9499351900257489</v>
       </c>
       <c r="J5">
-        <v>0.9555566966831095</v>
+        <v>0.9499351900257488</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.9001982449359</v>
+        <v>24.519512</v>
       </c>
       <c r="N5">
-        <v>16.9001982449359</v>
+        <v>73.558536</v>
       </c>
       <c r="O5">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="P5">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="Q5">
-        <v>1914.648195129162</v>
+        <v>2800.467538714373</v>
       </c>
       <c r="R5">
-        <v>1914.648195129162</v>
+        <v>25204.20784842936</v>
       </c>
       <c r="S5">
-        <v>0.3665352845232105</v>
+        <v>0.4499403457002853</v>
       </c>
       <c r="T5">
-        <v>0.3665352845232105</v>
+        <v>0.4499403457002852</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>113.291463649125</v>
+        <v>114.2138366666667</v>
       </c>
       <c r="H6">
-        <v>113.291463649125</v>
+        <v>342.64151</v>
       </c>
       <c r="I6">
-        <v>0.9555566966831095</v>
+        <v>0.9499351900257489</v>
       </c>
       <c r="J6">
-        <v>0.9555566966831095</v>
+        <v>0.9499351900257488</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.6403963973478</v>
+        <v>14.70328633333333</v>
       </c>
       <c r="N6">
-        <v>14.6403963973478</v>
+        <v>44.109859</v>
       </c>
       <c r="O6">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="P6">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="Q6">
-        <v>1658.631936258909</v>
+        <v>1679.318743738565</v>
       </c>
       <c r="R6">
-        <v>1658.631936258909</v>
+        <v>15113.86869364709</v>
       </c>
       <c r="S6">
-        <v>0.3175241959450054</v>
+        <v>0.2698096820095881</v>
       </c>
       <c r="T6">
-        <v>0.3175241959450054</v>
+        <v>0.269809682009588</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>113.291463649125</v>
+        <v>114.2138366666667</v>
       </c>
       <c r="H7">
-        <v>113.291463649125</v>
+        <v>342.64151</v>
       </c>
       <c r="I7">
-        <v>0.9555566966831095</v>
+        <v>0.9499351900257489</v>
       </c>
       <c r="J7">
-        <v>0.9555566966831095</v>
+        <v>0.9499351900257488</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.5181857537903</v>
+        <v>12.543947</v>
       </c>
       <c r="N7">
-        <v>12.5181857537903</v>
+        <v>37.631841</v>
       </c>
       <c r="O7">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="P7">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="Q7">
-        <v>1418.203586278528</v>
+        <v>1432.692313813323</v>
       </c>
       <c r="R7">
-        <v>1418.203586278528</v>
+        <v>12894.23082431991</v>
       </c>
       <c r="S7">
-        <v>0.2714972162148936</v>
+        <v>0.2301851623158755</v>
       </c>
       <c r="T7">
-        <v>0.2714972162148936</v>
+        <v>0.2301851623158754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.71630218247747</v>
+        <v>1.922099666666667</v>
       </c>
       <c r="H8">
-        <v>1.71630218247747</v>
+        <v>5.766299</v>
       </c>
       <c r="I8">
-        <v>0.01447614843319088</v>
+        <v>0.01598641780533329</v>
       </c>
       <c r="J8">
-        <v>0.01447614843319088</v>
+        <v>0.01598641780533329</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.9001982449359</v>
+        <v>24.519512</v>
       </c>
       <c r="N8">
-        <v>16.9001982449359</v>
+        <v>73.558536</v>
       </c>
       <c r="O8">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="P8">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="Q8">
-        <v>29.0058471320854</v>
+        <v>47.12894584202934</v>
       </c>
       <c r="R8">
-        <v>29.0058471320854</v>
+        <v>424.160512578264</v>
       </c>
       <c r="S8">
-        <v>0.005552804143571901</v>
+        <v>0.007572026417555798</v>
       </c>
       <c r="T8">
-        <v>0.005552804143571901</v>
+        <v>0.007572026417555798</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.71630218247747</v>
+        <v>1.922099666666667</v>
       </c>
       <c r="H9">
-        <v>1.71630218247747</v>
+        <v>5.766299</v>
       </c>
       <c r="I9">
-        <v>0.01447614843319088</v>
+        <v>0.01598641780533329</v>
       </c>
       <c r="J9">
-        <v>0.01447614843319088</v>
+        <v>0.01598641780533329</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.6403963973478</v>
+        <v>14.70328633333333</v>
       </c>
       <c r="N9">
-        <v>14.6403963973478</v>
+        <v>44.109859</v>
       </c>
       <c r="O9">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="P9">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="Q9">
-        <v>25.12734428910332</v>
+        <v>28.26118176020456</v>
       </c>
       <c r="R9">
-        <v>25.12734428910332</v>
+        <v>254.350635841841</v>
       </c>
       <c r="S9">
-        <v>0.004810313618841004</v>
+        <v>0.004540615349150796</v>
       </c>
       <c r="T9">
-        <v>0.004810313618841004</v>
+        <v>0.004540615349150796</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.71630218247747</v>
+        <v>1.922099666666667</v>
       </c>
       <c r="H10">
-        <v>1.71630218247747</v>
+        <v>5.766299</v>
       </c>
       <c r="I10">
-        <v>0.01447614843319088</v>
+        <v>0.01598641780533329</v>
       </c>
       <c r="J10">
-        <v>0.01447614843319088</v>
+        <v>0.01598641780533329</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.5181857537903</v>
+        <v>12.543947</v>
       </c>
       <c r="N10">
-        <v>12.5181857537903</v>
+        <v>37.631841</v>
       </c>
       <c r="O10">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="P10">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="Q10">
-        <v>21.48498952988867</v>
+        <v>24.11071634738434</v>
       </c>
       <c r="R10">
-        <v>21.48498952988867</v>
+        <v>216.996447126459</v>
       </c>
       <c r="S10">
-        <v>0.004113030670777978</v>
+        <v>0.003873776038626698</v>
       </c>
       <c r="T10">
-        <v>0.004113030670777978</v>
+        <v>0.003873776038626698</v>
       </c>
     </row>
   </sheetData>
